--- a/Machine-Order-Data.xlsx
+++ b/Machine-Order-Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECE4EBA-CA38-46C6-A193-40139CBB8883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0139013E-794B-489F-BEF9-BB5AFAE05026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machines" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Barista Lite</t>
   </si>
   <si>
-    <t xml:space="preserve">	1-50</t>
-  </si>
-  <si>
     <t>1-100</t>
   </si>
   <si>
@@ -1190,15 +1187,22 @@
   </si>
   <si>
     <t>https://images-us-prod.cms.commerce.dynamics.com/cms/api/qbvttlwqcm/imageFileData/MAR5u?ver=68d8&amp;w=935&amp;h=471&amp;q=80&amp;m=6&amp;f=jpg</t>
+  </si>
+  <si>
+    <t>1-50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1246,7 +1250,7 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1603,8 +1607,8 @@
   <sheetPr codeName="dataSheet"/>
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1678,31 +1682,31 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="J2" s="3">
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="4">
         <v>699</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
@@ -1710,10 +1714,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C3" s="2">
         <v>44686.750775462999</v>
@@ -1722,31 +1726,31 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4">
         <v>699</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="3">
         <v>1</v>
@@ -1754,43 +1758,43 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C4" s="2">
         <v>44686.754317129598</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3">
         <v>4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="4">
         <v>999</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -1798,43 +1802,43 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>44686.754317129598</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="4">
         <v>999</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
@@ -1842,43 +1846,43 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>44686.754687499997</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="3">
         <v>7</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" s="4">
         <v>1199</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N6" s="3">
         <v>1</v>
@@ -1886,43 +1890,43 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>44686.754687499997</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3">
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="4">
         <v>1199</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
@@ -1930,43 +1934,43 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C8" s="2">
         <v>44686.754687499997</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3">
         <v>9</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="4">
         <v>1199</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -1974,43 +1978,43 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C9" s="2">
         <v>44686.754317129598</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="3">
         <v>6</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="4">
         <v>999</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
@@ -2018,43 +2022,43 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C10" s="2">
         <v>44686.755081018498</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="3">
         <v>10</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" s="4">
         <v>1399</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N10" s="3">
         <v>1</v>
@@ -2062,43 +2066,43 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C11" s="2">
         <v>44686.755092592597</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="3">
         <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L11" s="4">
         <v>1399</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -2106,43 +2110,43 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C12" s="2">
         <v>44686.755138888897</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="3">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L12" s="4">
         <v>1399</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -2150,43 +2154,43 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C13" s="2">
         <v>44686.751273148097</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="3">
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="4">
         <v>21900</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N13" s="3">
         <v>2</v>
@@ -2194,43 +2198,43 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C14" s="2">
         <v>44686.751273148097</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="3">
         <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L14" s="4">
         <v>21900</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N14" s="3">
         <v>2</v>
@@ -2238,43 +2242,43 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C15" s="2">
         <v>44686.751273148097</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="3">
         <v>15</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" s="4">
         <v>21900</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N15" s="3">
         <v>2</v>
@@ -2282,43 +2286,43 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C16" s="2">
         <v>44686.751643518503</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="3">
         <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L16" s="4">
         <v>23900</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N16" s="3">
         <v>2</v>
@@ -2326,43 +2330,43 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C17" s="2">
         <v>44686.751655092601</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" s="3">
         <v>17</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L17" s="4">
         <v>23900</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N17" s="3">
         <v>2</v>
@@ -2370,43 +2374,43 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C18" s="2">
         <v>44686.753518518497</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="3">
         <v>19</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" s="4">
         <v>17900</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N18" s="3">
         <v>2</v>
@@ -2414,43 +2418,43 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C19" s="2">
         <v>44686.751655092601</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="3">
         <v>18</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L19" s="4">
         <v>23900</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N19" s="3">
         <v>2</v>
@@ -2458,43 +2462,43 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C20" s="2">
         <v>44686.753518518497</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="3">
         <v>20</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L20" s="4">
         <v>17900</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N20" s="3">
         <v>2</v>
@@ -2502,43 +2506,43 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C21" s="2">
         <v>44686.753530092603</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="3">
         <v>21</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L21" s="4">
         <v>17900</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N21" s="3">
         <v>2</v>
@@ -2546,10 +2550,10 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C22" s="2">
         <v>44686.750775462999</v>
@@ -2558,31 +2562,31 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="J22" s="3">
         <v>2</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L22" s="4">
         <v>699</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -2590,43 +2594,43 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C23" s="2">
         <v>44686.753923611097</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="3">
         <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L23" s="4">
         <v>19900</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N23" s="3">
         <v>2</v>
@@ -2634,43 +2638,43 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C24" s="2">
         <v>44686.753923611097</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" s="3">
         <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L24" s="4">
         <v>19900</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N24" s="3">
         <v>2</v>
@@ -2678,43 +2682,43 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C25" s="2">
         <v>44686.753923611097</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" s="3">
         <v>24</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L25" s="4">
         <v>19900</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N25" s="3">
         <v>2</v>
@@ -2722,43 +2726,43 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C26" s="2">
         <v>44686.753113425897</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" s="3">
         <v>25</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L26" s="4">
         <v>9900</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N26" s="3">
         <v>2</v>
@@ -2766,43 +2770,43 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C27" s="2">
         <v>44686.753113425897</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="3">
         <v>27</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L27" s="4">
         <v>9900</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N27" s="3">
         <v>2</v>
@@ -2810,43 +2814,43 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C28" s="2">
         <v>44686.753113425897</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J28" s="3">
         <v>26</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L28" s="4">
         <v>9900</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N28" s="3">
         <v>2</v>
@@ -2854,43 +2858,43 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C29" s="2">
         <v>44686.752488425896</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J29" s="3">
         <v>28</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L29" s="4">
         <v>12900</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N29" s="3">
         <v>2</v>
@@ -2898,43 +2902,43 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C30" s="2">
         <v>44686.752488425896</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J30" s="3">
         <v>29</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L30" s="4">
         <v>12900</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N30" s="3">
         <v>2</v>
@@ -2942,43 +2946,43 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C31" s="2">
         <v>44686.752488425896</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" s="3">
         <v>30</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L31" s="4">
         <v>12900</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N31" s="3">
         <v>2</v>
@@ -2986,43 +2990,43 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C32" s="2">
         <v>44686.752777777801</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J32" s="3">
         <v>31</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L32" s="4">
         <v>14900</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N32" s="3">
         <v>2</v>
@@ -3030,43 +3034,43 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C33" s="2">
         <v>44686.752789351798</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J33" s="3">
         <v>32</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L33" s="4">
         <v>14900</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N33" s="3">
         <v>2</v>
@@ -3074,43 +3078,43 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C34" s="2">
         <v>44686.752789351798</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J34" s="3">
         <v>33</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L34" s="4">
         <v>14900</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N34" s="3">
         <v>2</v>
@@ -3118,43 +3122,43 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C35" s="2">
         <v>44686.752060185201</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J35" s="3">
         <v>34</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L35" s="4">
         <v>16900</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N35" s="3">
         <v>2</v>
@@ -3162,43 +3166,43 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C36" s="2">
         <v>44686.752060185201</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J36" s="3">
         <v>35</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L36" s="4">
         <v>16900</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N36" s="3">
         <v>2</v>
@@ -3206,43 +3210,43 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C37" s="2">
         <v>44686.752060185201</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J37" s="3">
         <v>36</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L37" s="4">
         <v>16900</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N37" s="3">
         <v>2</v>
@@ -3250,43 +3254,43 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C38" s="2">
         <v>44686.759629629603</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="J38" s="3">
         <v>38</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L38" s="4">
         <v>499</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N38" s="3">
         <v>3</v>
@@ -3294,43 +3298,43 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C39" s="2">
         <v>44686.7578587963</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="J39" s="3">
         <v>37</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L39" s="4">
         <v>499</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N39" s="3">
         <v>3</v>
@@ -3338,43 +3342,43 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C40" s="2">
         <v>44686.759965277801</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="J40" s="3">
         <v>39</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L40" s="4">
         <v>499</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N40" s="3">
         <v>3</v>
@@ -3382,43 +3386,43 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C41" s="2">
         <v>44686.760081018503</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="J41" s="3">
         <v>40</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L41" s="4">
         <v>499</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N41" s="3">
         <v>3</v>
@@ -3426,43 +3430,43 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C42" s="2">
         <v>44686.760231481501</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="J42" s="3">
         <v>41</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L42" s="4">
         <v>499</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N42" s="3">
         <v>3</v>
@@ -3470,43 +3474,43 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C43" s="2">
         <v>44686.758495370399</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J43" s="3">
         <v>43</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L43" s="4">
         <v>349</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N43" s="3">
         <v>3</v>
@@ -3514,43 +3518,43 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C44" s="2">
         <v>44686.758495370399</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="I44" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J44" s="3">
         <v>42</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L44" s="4">
         <v>349</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N44" s="3">
         <v>3</v>
@@ -3558,43 +3562,43 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C45" s="2">
         <v>44686.758506944403</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="I45" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J45" s="3">
         <v>45</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L45" s="4">
         <v>349</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N45" s="3">
         <v>3</v>
@@ -3602,43 +3606,43 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C46" s="2">
         <v>44686.758506944403</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J46" s="3">
         <v>44</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L46" s="4">
         <v>349</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N46" s="3">
         <v>3</v>
@@ -3646,43 +3650,43 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="C47" s="2">
         <v>44686.755960648101</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J47" s="3">
         <v>47</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L47" s="4">
         <v>449</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N47" s="3">
         <v>3</v>
@@ -3690,43 +3694,43 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C48" s="2">
         <v>44686.758541666699</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J48" s="3">
         <v>46</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L48" s="4">
         <v>349</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N48" s="3">
         <v>3</v>
@@ -3734,43 +3738,43 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="C49" s="2">
         <v>44686.755960648101</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J49" s="3">
         <v>48</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L49" s="4">
         <v>449</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N49" s="3">
         <v>3</v>
@@ -3778,43 +3782,43 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C50" s="2">
         <v>44686.755960648101</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J50" s="3">
         <v>49</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L50" s="4">
         <v>449</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N50" s="3">
         <v>3</v>
@@ -3822,43 +3826,43 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="C51" s="2">
         <v>44686.755960648101</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="I51" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J51" s="3">
         <v>50</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L51" s="4">
         <v>449</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N51" s="3">
         <v>3</v>
@@ -3866,43 +3870,43 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C52" s="2">
         <v>44686.755972222199</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="I52" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J52" s="3">
         <v>51</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L52" s="4">
         <v>449</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N52" s="3">
         <v>3</v>
@@ -3910,43 +3914,43 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C53" s="2">
         <v>44686.756493055596</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="I53" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J53" s="3">
         <v>53</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L53" s="4">
         <v>399</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N53" s="3">
         <v>3</v>
@@ -3954,43 +3958,43 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="C54" s="2">
         <v>44686.749629629601</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="I54" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J54" s="3">
         <v>60</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L54" s="4">
         <v>179</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N54" s="3">
         <v>3</v>
@@ -3998,43 +4002,43 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="C55" s="2">
         <v>44686.75</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J55" s="3">
         <v>70</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L55" s="4">
         <v>149</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N55" s="3">
         <v>3</v>
@@ -4042,43 +4046,43 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C56" s="2">
         <v>44686.749247685198</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J56" s="3">
         <v>96</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L56" s="4">
         <v>499</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N56" s="3">
         <v>4</v>
@@ -4086,43 +4090,43 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="C57" s="2">
         <v>44686.7565046296</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J57" s="3">
         <v>52</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L57" s="4">
         <v>399</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N57" s="3">
         <v>3</v>
@@ -4130,43 +4134,43 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C58" s="2">
         <v>44686.748935185198</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="I58" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J58" s="3">
         <v>78</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L58" s="4">
         <v>349</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N58" s="3">
         <v>4</v>
@@ -4174,43 +4178,43 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="C59" s="2">
         <v>44686.747002314798</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J59" s="3">
         <v>86</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L59" s="4">
         <v>399</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N59" s="3">
         <v>4</v>
@@ -4218,43 +4222,43 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C60" s="2">
         <v>44686.757071759297</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J60" s="3">
         <v>74</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L60" s="4">
         <v>99</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N60" s="3">
         <v>3</v>
@@ -4262,43 +4266,43 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="C61" s="2">
         <v>44686.750300925902</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="I61" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J61" s="3">
         <v>63</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L61" s="4">
         <v>219</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N61" s="3">
         <v>3</v>
@@ -4306,43 +4310,43 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="C62" s="2">
         <v>44686.748599537001</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I62" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J62" s="3">
         <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L62" s="4">
         <v>499</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N62" s="3">
         <v>4</v>
@@ -4350,43 +4354,43 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C63" s="2">
         <v>44686.748611111099</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J63" s="3">
         <v>88</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L63" s="4">
         <v>499</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N63" s="3">
         <v>4</v>
@@ -4394,43 +4398,43 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="C64" s="2">
         <v>44686.747002314798</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J64" s="3">
         <v>83</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L64" s="4">
         <v>399</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N64" s="3">
         <v>4</v>
@@ -4438,43 +4442,43 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C65" s="2">
         <v>44686.75</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="I65" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J65" s="3">
         <v>71</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L65" s="4">
         <v>149</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N65" s="3">
         <v>3</v>
@@ -4482,43 +4486,43 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
+        <v>269</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="C66" s="2">
         <v>44686.7503125</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="I66" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J66" s="3">
         <v>66</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L66" s="4">
         <v>219</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N66" s="3">
         <v>3</v>
@@ -4526,43 +4530,43 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
+        <v>272</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C67" s="2">
         <v>44686.75</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="I67" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J67" s="3">
         <v>69</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L67" s="4">
         <v>149</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N67" s="3">
         <v>3</v>
@@ -4570,43 +4574,43 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
+        <v>275</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C68" s="2">
         <v>44686.747002314798</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I68" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J68" s="3">
         <v>84</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L68" s="4">
         <v>399</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N68" s="3">
         <v>4</v>
@@ -4614,43 +4618,43 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="C69" s="2">
         <v>44686.757071759297</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="I69" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J69" s="3">
         <v>75</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L69" s="4">
         <v>99</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N69" s="3">
         <v>3</v>
@@ -4658,43 +4662,43 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="C70" s="2">
         <v>44686.7565046296</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="I70" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J70" s="3">
         <v>56</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L70" s="4">
         <v>399</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N70" s="3">
         <v>3</v>
@@ -4702,43 +4706,43 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C71" s="2">
         <v>44686.748935185198</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="I71" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J71" s="3">
         <v>79</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L71" s="4">
         <v>349</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N71" s="3">
         <v>4</v>
@@ -4746,43 +4750,43 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C72" s="2">
         <v>44686.749629629601</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="I72" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J72" s="3">
         <v>59</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L72" s="4">
         <v>179</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N72" s="3">
         <v>3</v>
@@ -4790,43 +4794,43 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C73" s="2">
         <v>44686.749247685198</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="I73" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J73" s="3">
         <v>95</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L73" s="4">
         <v>499</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N73" s="3">
         <v>4</v>
@@ -4834,43 +4838,43 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="C74" s="2">
         <v>44686.757071759297</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="I74" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J74" s="3">
         <v>73</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L74" s="4">
         <v>99</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N74" s="3">
         <v>3</v>
@@ -4878,43 +4882,43 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="C75" s="2">
         <v>44686.7503125</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="I75" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J75" s="3">
         <v>62</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L75" s="4">
         <v>219</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N75" s="3">
         <v>3</v>
@@ -4922,43 +4926,43 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C76" s="2">
         <v>44686.749247685198</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="I76" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J76" s="3">
         <v>92</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L76" s="4">
         <v>499</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N76" s="3">
         <v>4</v>
@@ -4966,43 +4970,43 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
+        <v>302</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="C77" s="2">
         <v>44686.7565046296</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="I77" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J77" s="3">
         <v>55</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L77" s="4">
         <v>399</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N77" s="3">
         <v>3</v>
@@ -5010,43 +5014,43 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
+        <v>305</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="C78" s="2">
         <v>44686.748611111099</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I78" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J78" s="3">
         <v>87</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L78" s="4">
         <v>499</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N78" s="3">
         <v>4</v>
@@ -5054,43 +5058,43 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
+        <v>308</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C79" s="2">
         <v>44686.748935185198</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="I79" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J79" s="3">
         <v>77</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L79" s="4">
         <v>349</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N79" s="3">
         <v>4</v>
@@ -5098,43 +5102,43 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C80" s="2">
         <v>44686.7503125</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="I80" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J80" s="3">
         <v>65</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L80" s="4">
         <v>219</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N80" s="3">
         <v>3</v>
@@ -5142,43 +5146,43 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
+        <v>314</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="C81" s="2">
         <v>44686.749629629601</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="I81" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J81" s="3">
         <v>58</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L81" s="4">
         <v>179</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N81" s="3">
         <v>3</v>
@@ -5186,43 +5190,43 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
+        <v>317</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="C82" s="2">
         <v>44686.748611111099</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I82" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J82" s="3">
         <v>90</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L82" s="4">
         <v>499</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N82" s="3">
         <v>4</v>
@@ -5230,43 +5234,43 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
+        <v>320</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="C83" s="2">
         <v>44686.747002314798</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I83" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J83" s="3">
         <v>82</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L83" s="4">
         <v>399</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N83" s="3">
         <v>4</v>
@@ -5274,43 +5278,43 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
+        <v>323</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="C84" s="2">
         <v>44686.750011574099</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="I84" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J84" s="3">
         <v>68</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L84" s="4">
         <v>149</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N84" s="3">
         <v>3</v>
@@ -5318,43 +5322,43 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
+        <v>326</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C85" s="2">
         <v>44686.749629629601</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="I85" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J85" s="3">
         <v>61</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L85" s="4">
         <v>179</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N85" s="3">
         <v>3</v>
@@ -5362,43 +5366,43 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
+        <v>329</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C86" s="2">
         <v>44686.749247685198</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="I86" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J86" s="3">
         <v>94</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L86" s="4">
         <v>499</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N86" s="3">
         <v>4</v>
@@ -5406,43 +5410,43 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
+        <v>332</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="C87" s="2">
         <v>44686.757071759297</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="I87" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J87" s="3">
         <v>72</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L87" s="4">
         <v>99</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N87" s="3">
         <v>3</v>
@@ -5450,43 +5454,43 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="C88" s="2">
         <v>44686.748611111099</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I88" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J88" s="3">
         <v>89</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L88" s="4">
         <v>499</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N88" s="3">
         <v>4</v>
@@ -5494,43 +5498,43 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
+        <v>338</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="C89" s="2">
         <v>44686.747002314798</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I89" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J89" s="3">
         <v>85</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L89" s="4">
         <v>399</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N89" s="3">
         <v>4</v>
@@ -5538,43 +5542,43 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
+        <v>341</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="C90" s="2">
         <v>44686.749247685198</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="I90" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J90" s="3">
         <v>93</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L90" s="4">
         <v>499</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N90" s="3">
         <v>4</v>
@@ -5582,43 +5586,43 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
+        <v>344</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="C91" s="2">
         <v>44686.7503125</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="I91" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J91" s="3">
         <v>64</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L91" s="4">
         <v>219</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N91" s="3">
         <v>3</v>
@@ -5626,43 +5630,43 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="C92" s="2">
         <v>44686.749629629601</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="I92" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J92" s="3">
         <v>57</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L92" s="4">
         <v>179</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N92" s="3">
         <v>3</v>
@@ -5670,43 +5674,43 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
+        <v>350</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="C93" s="2">
         <v>44686.7565046296</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="I93" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J93" s="3">
         <v>54</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L93" s="4">
         <v>399</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N93" s="3">
         <v>3</v>
@@ -5714,43 +5718,43 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
+        <v>353</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C94" s="2">
         <v>44686.757071759297</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="I94" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J94" s="3">
         <v>76</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L94" s="4">
         <v>99</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N94" s="3">
         <v>3</v>
@@ -5758,43 +5762,43 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
+        <v>356</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="C95" s="2">
         <v>44686.750011574099</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="I95" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J95" s="3">
         <v>67</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L95" s="4">
         <v>149</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N95" s="3">
         <v>3</v>
@@ -5802,43 +5806,43 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
+        <v>359</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C96" s="2">
         <v>44686.748946759297</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="I96" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J96" s="3">
         <v>80</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L96" s="4">
         <v>349</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N96" s="3">
         <v>4</v>
@@ -5846,49 +5850,50 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" t="s">
+        <v>362</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="C97" s="2">
         <v>44686.748946759297</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="I97" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J97" s="3">
         <v>81</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L97" s="4">
         <v>349</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N97" s="3">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="(Do Not Modify) Modified On must be in the correct date and time format." promptTitle="Date and time" prompt=" " sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
@@ -5917,6 +5922,9 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2:E4 E5:E7 E8:E37 E53 E57 E70 E77 E93" twoDigitTextYear="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -5946,7 +5954,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5955,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -5964,7 +5972,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1"/>
       <c r="I1"/>
@@ -5976,22 +5984,22 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="C2" s="2">
         <v>44686.768750000003</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
@@ -5999,22 +6007,22 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="C3" s="2">
         <v>44686.768750000003</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -6022,22 +6030,22 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="C4" s="2">
         <v>44686.768750000003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
@@ -6045,22 +6053,22 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="C5" s="2">
         <v>44686.768750000003</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -6101,7 +6109,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
